--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt10b-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt10b-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt10b</t>
+  </si>
+  <si>
+    <t>Fzd7</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt10b</t>
-  </si>
-  <si>
-    <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -549,10 +549,10 @@
         <v>0.821179</v>
       </c>
       <c r="I2">
-        <v>0.704812364228742</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.704812364228742</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N2">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O2">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P2">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q2">
-        <v>0.1185311666706667</v>
+        <v>0.373119923409</v>
       </c>
       <c r="R2">
-        <v>1.066780500036</v>
+        <v>3.358079310681</v>
       </c>
       <c r="S2">
-        <v>0.01327704504862845</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="T2">
-        <v>0.01327704504862845</v>
+        <v>0.06061833851125786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.821179</v>
       </c>
       <c r="I3">
-        <v>0.704812364228742</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.704812364228742</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>11.980769</v>
       </c>
       <c r="O3">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P3">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q3">
         <v>1.093150656294556</v>
@@ -641,10 +641,10 @@
         <v>9.838355906651</v>
       </c>
       <c r="S3">
-        <v>0.1224472087487885</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="T3">
-        <v>0.1224472087487886</v>
+        <v>0.1775969932713292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -673,10 +673,10 @@
         <v>0.821179</v>
       </c>
       <c r="I4">
-        <v>0.704812364228742</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.704812364228742</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N4">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O4">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P4">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q4">
-        <v>1.423466076875889</v>
+        <v>0.8776261145231111</v>
       </c>
       <c r="R4">
-        <v>12.811194691883</v>
+        <v>7.898635030707999</v>
       </c>
       <c r="S4">
-        <v>0.1594468675094269</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="T4">
-        <v>0.1594468675094269</v>
+        <v>0.1425821393036839</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -735,10 +735,10 @@
         <v>0.821179</v>
       </c>
       <c r="I5">
-        <v>0.704812364228742</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.704812364228742</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N5">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O5">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P5">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q5">
-        <v>1.105482301337556</v>
+        <v>0.7568817792053335</v>
       </c>
       <c r="R5">
-        <v>9.949340712038001</v>
+        <v>6.811936012848001</v>
       </c>
       <c r="S5">
-        <v>0.1238285147070309</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="T5">
-        <v>0.1238285147070309</v>
+        <v>0.1229656017445605</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -797,10 +797,10 @@
         <v>0.821179</v>
       </c>
       <c r="I6">
-        <v>0.704812364228742</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.704812364228742</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N6">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O6">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P6">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q6">
-        <v>1.088587273349445</v>
+        <v>1.340866874739778</v>
       </c>
       <c r="R6">
-        <v>9.797285460145002</v>
+        <v>12.067801872658</v>
       </c>
       <c r="S6">
-        <v>0.1219360500161261</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="T6">
-        <v>0.1219360500161261</v>
+        <v>0.2178418170996753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.821179</v>
       </c>
       <c r="I7">
-        <v>0.704812364228742</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.704812364228742</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N7">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O7">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P7">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q7">
-        <v>1.463013327579</v>
+        <v>1.713586427765222</v>
       </c>
       <c r="R7">
-        <v>13.167119948211</v>
+        <v>15.422277849887</v>
       </c>
       <c r="S7">
-        <v>0.1638766781987412</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="T7">
-        <v>0.1638766781987412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1146413333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.343924</v>
-      </c>
-      <c r="I8">
-        <v>0.295187635771258</v>
-      </c>
-      <c r="J8">
-        <v>0.295187635771258</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.433028</v>
-      </c>
-      <c r="N8">
-        <v>1.299084</v>
-      </c>
-      <c r="O8">
-        <v>0.01883770166710565</v>
-      </c>
-      <c r="P8">
-        <v>0.01883770166710565</v>
-      </c>
-      <c r="Q8">
-        <v>0.04964290729066666</v>
-      </c>
-      <c r="R8">
-        <v>0.446786165616</v>
-      </c>
-      <c r="S8">
-        <v>0.005560656618477202</v>
-      </c>
-      <c r="T8">
-        <v>0.005560656618477202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1146413333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.343924</v>
-      </c>
-      <c r="I9">
-        <v>0.295187635771258</v>
-      </c>
-      <c r="J9">
-        <v>0.295187635771258</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3.993589666666667</v>
-      </c>
-      <c r="N9">
-        <v>11.980769</v>
-      </c>
-      <c r="O9">
-        <v>0.1737302223447504</v>
-      </c>
-      <c r="P9">
-        <v>0.1737302223447504</v>
-      </c>
-      <c r="Q9">
-        <v>0.4578304441728888</v>
-      </c>
-      <c r="R9">
-        <v>4.120473997555999</v>
-      </c>
-      <c r="S9">
-        <v>0.05128301359596184</v>
-      </c>
-      <c r="T9">
-        <v>0.05128301359596184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1146413333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.343924</v>
-      </c>
-      <c r="I10">
-        <v>0.295187635771258</v>
-      </c>
-      <c r="J10">
-        <v>0.295187635771258</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.200325666666665</v>
-      </c>
-      <c r="N10">
-        <v>15.600977</v>
-      </c>
-      <c r="O10">
-        <v>0.226225979568201</v>
-      </c>
-      <c r="P10">
-        <v>0.226225979568201</v>
-      </c>
-      <c r="Q10">
-        <v>0.596172268194222</v>
-      </c>
-      <c r="R10">
-        <v>5.365550413747998</v>
-      </c>
-      <c r="S10">
-        <v>0.06677911205877417</v>
-      </c>
-      <c r="T10">
-        <v>0.06677911205877417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1146413333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.343924</v>
-      </c>
-      <c r="I11">
-        <v>0.295187635771258</v>
-      </c>
-      <c r="J11">
-        <v>0.295187635771258</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>4.038640666666667</v>
-      </c>
-      <c r="N11">
-        <v>12.115922</v>
-      </c>
-      <c r="O11">
-        <v>0.1756900431826749</v>
-      </c>
-      <c r="P11">
-        <v>0.1756900431826749</v>
-      </c>
-      <c r="Q11">
-        <v>0.4629951508808888</v>
-      </c>
-      <c r="R11">
-        <v>4.166956357928</v>
-      </c>
-      <c r="S11">
-        <v>0.05186152847564401</v>
-      </c>
-      <c r="T11">
-        <v>0.05186152847564403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1146413333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.343924</v>
-      </c>
-      <c r="I12">
-        <v>0.295187635771258</v>
-      </c>
-      <c r="J12">
-        <v>0.295187635771258</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>3.976918333333334</v>
-      </c>
-      <c r="N12">
-        <v>11.930755</v>
-      </c>
-      <c r="O12">
-        <v>0.1730049814741226</v>
-      </c>
-      <c r="P12">
-        <v>0.1730049814741226</v>
-      </c>
-      <c r="Q12">
-        <v>0.4559192202911111</v>
-      </c>
-      <c r="R12">
-        <v>4.10327298262</v>
-      </c>
-      <c r="S12">
-        <v>0.05106893145799654</v>
-      </c>
-      <c r="T12">
-        <v>0.05106893145799654</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1146413333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.343924</v>
-      </c>
-      <c r="I13">
-        <v>0.295187635771258</v>
-      </c>
-      <c r="J13">
-        <v>0.295187635771258</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.344803000000002</v>
-      </c>
-      <c r="N13">
-        <v>16.034409</v>
-      </c>
-      <c r="O13">
-        <v>0.2325110717631454</v>
-      </c>
-      <c r="P13">
-        <v>0.2325110717631454</v>
-      </c>
-      <c r="Q13">
-        <v>0.6127353423240001</v>
-      </c>
-      <c r="R13">
-        <v>5.514618080916001</v>
-      </c>
-      <c r="S13">
-        <v>0.06863439356440418</v>
-      </c>
-      <c r="T13">
-        <v>0.06863439356440418</v>
+        <v>0.278395110069493</v>
       </c>
     </row>
   </sheetData>
